--- a/Tables/mechanism_soft.xlsx
+++ b/Tables/mechanism_soft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899074FB-E641-4CDF-9CA2-80EBCE5588CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F63423-1910-472B-981B-3F52E6427F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{D861D000-8099-4C4C-8EBE-AC6D62ECC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="mechanism_soft" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>R-squared</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Selling pawn $|$ def</t>
+  </si>
+  <si>
+    <t># of visits $|$ def</t>
   </si>
 </sst>
 </file>
@@ -291,13 +294,16 @@
           <cell r="N2" t="str">
             <v>(13)</v>
           </cell>
+          <cell r="O2" t="str">
+            <v>(14)</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-3.16***</v>
+            <v>-5.38***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-0.041*</v>
+            <v>-0.042*</v>
           </cell>
           <cell r="D5" t="str">
             <v>-0.039*</v>
@@ -306,30 +312,33 @@
             <v>0.079*</v>
           </cell>
           <cell r="F5" t="str">
+            <v>-0.036</v>
+          </cell>
+          <cell r="G5" t="str">
             <v>0.21***</v>
           </cell>
-          <cell r="G5" t="str">
+          <cell r="H5" t="str">
             <v>-0.042**</v>
           </cell>
-          <cell r="H5" t="str">
+          <cell r="I5" t="str">
             <v>-1.35</v>
           </cell>
-          <cell r="I5" t="str">
-            <v>-0.38</v>
-          </cell>
           <cell r="J5" t="str">
-            <v>0.0036</v>
+            <v>-0.21</v>
           </cell>
           <cell r="K5" t="str">
-            <v>-0.0035</v>
+            <v>0.0040</v>
           </cell>
           <cell r="L5" t="str">
+            <v>-0.0029</v>
+          </cell>
+          <cell r="M5" t="str">
             <v>-0.025</v>
           </cell>
-          <cell r="M5" t="str">
+          <cell r="N5" t="str">
             <v>0.016</v>
           </cell>
-          <cell r="N5" t="str">
+          <cell r="O5" t="str">
             <v>0.039</v>
           </cell>
         </row>
@@ -338,10 +347,10 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(1.08)</v>
+            <v>(1.48)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.021)</v>
+            <v>(0.022)</v>
           </cell>
           <cell r="D6" t="str">
             <v>(0.020)</v>
@@ -350,39 +359,42 @@
             <v>(0.041)</v>
           </cell>
           <cell r="F6" t="str">
+            <v>(0.057)</v>
+          </cell>
+          <cell r="G6" t="str">
             <v>(0.045)</v>
           </cell>
-          <cell r="G6" t="str">
+          <cell r="H6" t="str">
             <v>(0.021)</v>
           </cell>
-          <cell r="H6" t="str">
+          <cell r="I6" t="str">
             <v>(3.25)</v>
           </cell>
-          <cell r="I6" t="str">
-            <v>(2.70)</v>
-          </cell>
           <cell r="J6" t="str">
+            <v>(2.87)</v>
+          </cell>
+          <cell r="K6" t="str">
             <v>(0.023)</v>
           </cell>
-          <cell r="K6" t="str">
+          <cell r="L6" t="str">
             <v>(0.015)</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>(0.020)</v>
           </cell>
           <cell r="M6" t="str">
             <v>(0.020)</v>
           </cell>
           <cell r="N6" t="str">
+            <v>(0.020)</v>
+          </cell>
+          <cell r="O6" t="str">
             <v>(0.030)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-1.27</v>
+            <v>-2.56**</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.010</v>
+            <v>-0.011</v>
           </cell>
           <cell r="D8" t="str">
             <v>-0.0098</v>
@@ -391,30 +403,33 @@
             <v>0.00037</v>
           </cell>
           <cell r="F8" t="str">
+            <v>-0.042</v>
+          </cell>
+          <cell r="G8" t="str">
             <v>0.050</v>
           </cell>
-          <cell r="G8" t="str">
+          <cell r="H8" t="str">
             <v>-0.017</v>
           </cell>
-          <cell r="H8" t="str">
+          <cell r="I8" t="str">
             <v>-3.52</v>
           </cell>
-          <cell r="I8" t="str">
-            <v>-1.98</v>
-          </cell>
           <cell r="J8" t="str">
+            <v>-1.95</v>
+          </cell>
+          <cell r="K8" t="str">
             <v>-0.011</v>
           </cell>
-          <cell r="K8" t="str">
-            <v>-0.0079</v>
-          </cell>
           <cell r="L8" t="str">
+            <v>-0.0068</v>
+          </cell>
+          <cell r="M8" t="str">
             <v>-0.014</v>
           </cell>
-          <cell r="M8" t="str">
+          <cell r="N8" t="str">
             <v>0.016</v>
           </cell>
-          <cell r="N8" t="str">
+          <cell r="O8" t="str">
             <v>0.029</v>
           </cell>
         </row>
@@ -423,7 +438,7 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(0.94)</v>
+            <v>(1.24)</v>
           </cell>
           <cell r="C9" t="str">
             <v>(0.023)</v>
@@ -435,36 +450,39 @@
             <v>(0.033)</v>
           </cell>
           <cell r="F9" t="str">
+            <v>(0.048)</v>
+          </cell>
+          <cell r="G9" t="str">
             <v>(0.041)</v>
           </cell>
-          <cell r="G9" t="str">
+          <cell r="H9" t="str">
             <v>(0.022)</v>
           </cell>
-          <cell r="H9" t="str">
+          <cell r="I9" t="str">
             <v>(3.22)</v>
           </cell>
-          <cell r="I9" t="str">
-            <v>(2.64)</v>
-          </cell>
           <cell r="J9" t="str">
+            <v>(2.82)</v>
+          </cell>
+          <cell r="K9" t="str">
             <v>(0.022)</v>
           </cell>
-          <cell r="K9" t="str">
+          <cell r="L9" t="str">
             <v>(0.013)</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>(0.019)</v>
           </cell>
           <cell r="M9" t="str">
             <v>(0.019)</v>
           </cell>
           <cell r="N9" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="O9" t="str">
             <v>(0.027)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>7373</v>
+            <v>5081</v>
           </cell>
           <cell r="C11" t="str">
             <v>7525</v>
@@ -476,36 +494,39 @@
             <v>7525</v>
           </cell>
           <cell r="F11" t="str">
+            <v>4265</v>
+          </cell>
+          <cell r="G11" t="str">
             <v>3260</v>
           </cell>
-          <cell r="G11" t="str">
+          <cell r="H11" t="str">
             <v>7525</v>
           </cell>
-          <cell r="H11" t="str">
+          <cell r="I11" t="str">
             <v>3260</v>
           </cell>
-          <cell r="I11" t="str">
+          <cell r="J11" t="str">
+            <v>6978</v>
+          </cell>
+          <cell r="K11" t="str">
             <v>7525</v>
           </cell>
-          <cell r="J11" t="str">
-            <v>7525</v>
-          </cell>
-          <cell r="K11" t="str">
+          <cell r="L11" t="str">
             <v>4265</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>7525</v>
           </cell>
           <cell r="M11" t="str">
             <v>7525</v>
           </cell>
           <cell r="N11" t="str">
+            <v>7525</v>
+          </cell>
+          <cell r="O11" t="str">
             <v>4265</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>0.016</v>
+            <v>0.034</v>
           </cell>
           <cell r="C12" t="str">
             <v>0.018</v>
@@ -517,30 +538,33 @@
             <v>0.021</v>
           </cell>
           <cell r="F12" t="str">
+            <v>0.047</v>
+          </cell>
+          <cell r="G12" t="str">
             <v>0.037</v>
           </cell>
-          <cell r="G12" t="str">
+          <cell r="H12" t="str">
             <v>0.019</v>
           </cell>
-          <cell r="H12" t="str">
+          <cell r="I12" t="str">
             <v>0.025</v>
           </cell>
-          <cell r="I12" t="str">
-            <v>0.027</v>
-          </cell>
           <cell r="J12" t="str">
+            <v>0.031</v>
+          </cell>
+          <cell r="K12" t="str">
             <v>0.014</v>
           </cell>
-          <cell r="K12" t="str">
+          <cell r="L12" t="str">
             <v>0.042</v>
           </cell>
-          <cell r="L12" t="str">
+          <cell r="M12" t="str">
             <v>0.038</v>
           </cell>
-          <cell r="M12" t="str">
+          <cell r="N12" t="str">
             <v>0.018</v>
           </cell>
-          <cell r="N12" t="str">
+          <cell r="O12" t="str">
             <v>0.058</v>
           </cell>
         </row>
@@ -549,7 +573,7 @@
             <v>Control Mean</v>
           </cell>
           <cell r="B13" t="str">
-            <v>90.0</v>
+            <v>82.5</v>
           </cell>
           <cell r="C13" t="str">
             <v>0.48</v>
@@ -561,30 +585,33 @@
             <v>0.99</v>
           </cell>
           <cell r="F13" t="str">
+            <v>0.75</v>
+          </cell>
+          <cell r="G13" t="str">
             <v>1.30</v>
           </cell>
-          <cell r="G13" t="str">
+          <cell r="H13" t="str">
             <v>0.52</v>
           </cell>
-          <cell r="H13" t="str">
+          <cell r="I13" t="str">
             <v>92.5</v>
           </cell>
-          <cell r="I13" t="str">
-            <v>117.7</v>
-          </cell>
           <cell r="J13" t="str">
+            <v>116.1</v>
+          </cell>
+          <cell r="K13" t="str">
             <v>0.64</v>
           </cell>
-          <cell r="K13" t="str">
+          <cell r="L13" t="str">
             <v>0.18</v>
           </cell>
-          <cell r="L13" t="str">
+          <cell r="M13" t="str">
             <v>0.25</v>
           </cell>
-          <cell r="M13" t="str">
+          <cell r="N13" t="str">
             <v>0.31</v>
           </cell>
-          <cell r="N13" t="str">
+          <cell r="O13" t="str">
             <v>0.55</v>
           </cell>
         </row>
@@ -894,19 +921,19 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="A2:H22"/>
+      <selection activeCell="A2" sqref="A2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -934,13 +961,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -983,11 +1010,11 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>[1]mechanism_soft!B5</f>
-        <v>-3.16***</v>
+        <v>-5.38***</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>[1]mechanism_soft!C5</f>
-        <v>-0.041*</v>
+        <v>-0.042*</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>[1]mechanism_soft!D5</f>
@@ -999,15 +1026,15 @@
       </c>
       <c r="F4" s="1" t="str">
         <f>[1]mechanism_soft!F5</f>
-        <v>0.21***</v>
+        <v>-0.036</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>[1]mechanism_soft!G5</f>
-        <v>-0.042**</v>
+        <v>0.21***</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>[1]mechanism_soft!H5</f>
-        <v>-1.35</v>
+        <v>-0.042**</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1017,11 +1044,11 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>[1]mechanism_soft!B6</f>
-        <v>(1.08)</v>
+        <v>(1.48)</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>[1]mechanism_soft!C6</f>
-        <v>(0.021)</v>
+        <v>(0.022)</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]mechanism_soft!D6</f>
@@ -1033,15 +1060,15 @@
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]mechanism_soft!F6</f>
-        <v>(0.045)</v>
+        <v>(0.057)</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]mechanism_soft!G6</f>
-        <v>(0.021)</v>
+        <v>(0.045)</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>[1]mechanism_soft!H6</f>
-        <v>(3.25)</v>
+        <v>(0.021)</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1050,11 +1077,11 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>[1]mechanism_soft!B8</f>
-        <v>-1.27</v>
+        <v>-2.56**</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]mechanism_soft!C8</f>
-        <v>-0.010</v>
+        <v>-0.011</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]mechanism_soft!D8</f>
@@ -1066,15 +1093,15 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>[1]mechanism_soft!F8</f>
-        <v>0.050</v>
+        <v>-0.042</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]mechanism_soft!G8</f>
-        <v>-0.017</v>
+        <v>0.050</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>[1]mechanism_soft!H8</f>
-        <v>-3.52</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1084,7 +1111,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>[1]mechanism_soft!B9</f>
-        <v>(0.94)</v>
+        <v>(1.24)</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]mechanism_soft!C9</f>
@@ -1100,15 +1127,15 @@
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]mechanism_soft!F9</f>
-        <v>(0.041)</v>
+        <v>(0.048)</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]mechanism_soft!G9</f>
-        <v>(0.022)</v>
+        <v>(0.041)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]mechanism_soft!H9</f>
-        <v>(3.22)</v>
+        <v>(0.022)</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1117,7 +1144,7 @@
       </c>
       <c r="B9" s="8" t="str">
         <f>[1]mechanism_soft!B11</f>
-        <v>7373</v>
+        <v>5081</v>
       </c>
       <c r="C9" s="8" t="str">
         <f>[1]mechanism_soft!C11</f>
@@ -1133,15 +1160,15 @@
       </c>
       <c r="F9" s="8" t="str">
         <f>[1]mechanism_soft!F11</f>
-        <v>3260</v>
+        <v>4265</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>[1]mechanism_soft!G11</f>
-        <v>7525</v>
+        <v>3260</v>
       </c>
       <c r="H9" s="8" t="str">
         <f>[1]mechanism_soft!H11</f>
-        <v>3260</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1150,7 +1177,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>[1]mechanism_soft!B12</f>
-        <v>0.016</v>
+        <v>0.034</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]mechanism_soft!C12</f>
@@ -1166,15 +1193,15 @@
       </c>
       <c r="F10" s="1" t="str">
         <f>[1]mechanism_soft!F12</f>
-        <v>0.037</v>
+        <v>0.047</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]mechanism_soft!G12</f>
-        <v>0.019</v>
+        <v>0.037</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]mechanism_soft!H12</f>
-        <v>0.025</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1184,7 +1211,7 @@
       </c>
       <c r="B11" s="3" t="str">
         <f>[1]mechanism_soft!B13</f>
-        <v>90.0</v>
+        <v>82.5</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>[1]mechanism_soft!C13</f>
@@ -1200,15 +1227,15 @@
       </c>
       <c r="F11" s="3" t="str">
         <f>[1]mechanism_soft!F13</f>
-        <v>1.30</v>
+        <v>0.75</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>[1]mechanism_soft!G13</f>
-        <v>0.52</v>
+        <v>1.30</v>
       </c>
       <c r="H11" s="3" t="str">
         <f>[1]mechanism_soft!H13</f>
-        <v>92.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1224,24 +1251,26 @@
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -1271,7 +1300,10 @@
         <f>[1]mechanism_soft!N2</f>
         <v>(13)</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="str">
+        <f>[1]mechanism_soft!O2</f>
+        <v>(14)</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1279,26 +1311,30 @@
       </c>
       <c r="B15" s="1" t="str">
         <f>[1]mechanism_soft!I5</f>
-        <v>-0.38</v>
+        <v>-1.35</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]mechanism_soft!J5</f>
-        <v>0.0036</v>
+        <v>-0.21</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]mechanism_soft!K5</f>
-        <v>-0.0035</v>
+        <v>0.0040</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]mechanism_soft!L5</f>
-        <v>-0.025</v>
+        <v>-0.0029</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>[1]mechanism_soft!M5</f>
-        <v>0.016</v>
+        <v>-0.025</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>[1]mechanism_soft!N5</f>
+        <v>0.016</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>[1]mechanism_soft!O5</f>
         <v>0.039</v>
       </c>
     </row>
@@ -1308,19 +1344,19 @@
       </c>
       <c r="B16" s="1" t="str">
         <f>[1]mechanism_soft!I6</f>
-        <v>(2.70)</v>
+        <v>(3.25)</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]mechanism_soft!J6</f>
-        <v>(0.023)</v>
+        <v>(2.87)</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]mechanism_soft!K6</f>
-        <v>(0.015)</v>
+        <v>(0.023)</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]mechanism_soft!L6</f>
-        <v>(0.020)</v>
+        <v>(0.015)</v>
       </c>
       <c r="F16" s="1" t="str">
         <f>[1]mechanism_soft!M6</f>
@@ -1328,6 +1364,10 @@
       </c>
       <c r="G16" s="1" t="str">
         <f>[1]mechanism_soft!N6</f>
+        <v>(0.020)</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>[1]mechanism_soft!O6</f>
         <v>(0.030)</v>
       </c>
     </row>
@@ -1337,26 +1377,30 @@
       </c>
       <c r="B17" s="1" t="str">
         <f>[1]mechanism_soft!I8</f>
-        <v>-1.98</v>
+        <v>-3.52</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]mechanism_soft!J8</f>
-        <v>-0.011</v>
+        <v>-1.95</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]mechanism_soft!K8</f>
-        <v>-0.0079</v>
+        <v>-0.011</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]mechanism_soft!L8</f>
-        <v>-0.014</v>
+        <v>-0.0068</v>
       </c>
       <c r="F17" s="1" t="str">
         <f>[1]mechanism_soft!M8</f>
-        <v>0.016</v>
+        <v>-0.014</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>[1]mechanism_soft!N8</f>
+        <v>0.016</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>[1]mechanism_soft!O8</f>
         <v>0.029</v>
       </c>
     </row>
@@ -1366,19 +1410,19 @@
       </c>
       <c r="B18" s="1" t="str">
         <f>[1]mechanism_soft!I9</f>
-        <v>(2.64)</v>
+        <v>(3.22)</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]mechanism_soft!J9</f>
-        <v>(0.022)</v>
+        <v>(2.82)</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]mechanism_soft!K9</f>
-        <v>(0.013)</v>
+        <v>(0.022)</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>[1]mechanism_soft!L9</f>
-        <v>(0.019)</v>
+        <v>(0.013)</v>
       </c>
       <c r="F18" s="1" t="str">
         <f>[1]mechanism_soft!M9</f>
@@ -1386,6 +1430,10 @@
       </c>
       <c r="G18" s="1" t="str">
         <f>[1]mechanism_soft!N9</f>
+        <v>(0.019)</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>[1]mechanism_soft!O9</f>
         <v>(0.027)</v>
       </c>
     </row>
@@ -1405,19 +1453,19 @@
       </c>
       <c r="B20" s="14" t="str">
         <f>[1]mechanism_soft!I11</f>
-        <v>7525</v>
+        <v>3260</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>[1]mechanism_soft!J11</f>
-        <v>7525</v>
+        <v>6978</v>
       </c>
       <c r="D20" s="14" t="str">
         <f>[1]mechanism_soft!K11</f>
-        <v>4265</v>
+        <v>7525</v>
       </c>
       <c r="E20" s="14" t="str">
         <f>[1]mechanism_soft!L11</f>
-        <v>7525</v>
+        <v>4265</v>
       </c>
       <c r="F20" s="14" t="str">
         <f>[1]mechanism_soft!M11</f>
@@ -1425,6 +1473,10 @@
       </c>
       <c r="G20" s="14" t="str">
         <f>[1]mechanism_soft!N11</f>
+        <v>7525</v>
+      </c>
+      <c r="H20" s="14" t="str">
+        <f>[1]mechanism_soft!O11</f>
         <v>4265</v>
       </c>
     </row>
@@ -1434,26 +1486,30 @@
       </c>
       <c r="B21" s="1" t="str">
         <f>[1]mechanism_soft!I12</f>
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]mechanism_soft!J12</f>
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]mechanism_soft!K12</f>
-        <v>0.042</v>
+        <v>0.014</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>[1]mechanism_soft!L12</f>
-        <v>0.038</v>
+        <v>0.042</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>[1]mechanism_soft!M12</f>
-        <v>0.018</v>
+        <v>0.038</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>[1]mechanism_soft!N12</f>
+        <v>0.018</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>[1]mechanism_soft!O12</f>
         <v>0.058</v>
       </c>
     </row>
@@ -1463,29 +1519,32 @@
       </c>
       <c r="B22" s="3" t="str">
         <f>[1]mechanism_soft!I13</f>
-        <v>117.7</v>
+        <v>92.5</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>[1]mechanism_soft!J13</f>
-        <v>0.64</v>
+        <v>116.1</v>
       </c>
       <c r="D22" s="3" t="str">
         <f>[1]mechanism_soft!K13</f>
-        <v>0.18</v>
+        <v>0.64</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]mechanism_soft!L13</f>
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]mechanism_soft!M13</f>
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>[1]mechanism_soft!N13</f>
+        <v>0.31</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>[1]mechanism_soft!O13</f>
         <v>0.55</v>
       </c>
-      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
